--- a/Modello/nuovi modelli/inputTesiOriginali/test6/Soluzioni-2.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test6/Soluzioni-2.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10450" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50373" uniqueCount="962">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test6/Soluzioni-2.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test6/Soluzioni-2.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50373" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71722" uniqueCount="962">
   <si>
     <t>ANSPs</t>
   </si>
@@ -31957,10 +31957,10 @@
         <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>89</v>
@@ -31969,43 +31969,43 @@
         <v>89</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>89</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>89</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="S10" s="5" t="s">
         <v>89</v>
@@ -32014,16 +32014,16 @@
         <v>89</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="V10" s="5" t="s">
         <v>89</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="Y10" s="5" t="s">
         <v>89</v>
@@ -32038,7 +32038,7 @@
         <v>89</v>
       </c>
       <c r="AC10" s="5" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
       <c r="AD10" s="5" t="s">
         <v>89</v>
@@ -32050,13 +32050,13 @@
         <v>89</v>
       </c>
       <c r="AG10" s="5" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="AH10" s="5" t="s">
         <v>89</v>
       </c>
       <c r="AI10" s="5" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="AJ10" s="5" t="s">
         <v>89</v>
@@ -32421,115 +32421,115 @@
         <v>50</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="X14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="AB14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="AC14" s="5" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="AD14" s="5" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="AE14" s="5" t="s">
-        <v>791</v>
+        <v>779</v>
       </c>
       <c r="AF14" s="5" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="AG14" s="5" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
       <c r="AH14" s="5" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="AI14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="AJ14" s="5" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="AL14" s="5" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
     </row>
     <row r="15">
@@ -34045,25 +34045,25 @@
         <v>64</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>89</v>
@@ -34072,46 +34072,46 @@
         <v>89</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="V28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="Y28" s="5" t="s">
         <v>89</v>
@@ -34123,16 +34123,16 @@
         <v>89</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="AD28" s="5" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="AE28" s="5" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="AF28" s="5" t="s">
         <v>89</v>
@@ -34141,16 +34141,16 @@
         <v>89</v>
       </c>
       <c r="AH28" s="5" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
       <c r="AJ28" s="5" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="AK28" s="5" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="AL28" s="5" t="s">
         <v>89</v>
@@ -35321,115 +35321,115 @@
         <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="40">
@@ -35437,115 +35437,115 @@
         <v>85</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41">
@@ -35553,115 +35553,115 @@
         <v>86</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>125</v>
+        <v>226</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>125</v>
+        <v>257</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>125</v>
+        <v>289</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>125</v>
+        <v>313</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>125</v>
+        <v>332</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>125</v>
+        <v>350</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>125</v>
+        <v>389</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>125</v>
+        <v>420</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>125</v>
+        <v>451</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>125</v>
+        <v>482</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>125</v>
+        <v>510</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>125</v>
+        <v>534</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>125</v>
+        <v>563</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>125</v>
+        <v>590</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>125</v>
+        <v>618</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>125</v>
+        <v>650</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>125</v>
+        <v>674</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>125</v>
+        <v>696</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>125</v>
+        <v>708</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>125</v>
+        <v>726</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>125</v>
+        <v>754</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>125</v>
+        <v>781</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>125</v>
+        <v>806</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>125</v>
+        <v>835</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>125</v>
+        <v>863</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>125</v>
+        <v>876</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>125</v>
+        <v>902</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>125</v>
+        <v>927</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>125</v>
+        <v>953</v>
       </c>
     </row>
     <row r="42">
